--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/63_Ordu_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/63_Ordu_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{355C9169-A81F-4FA2-84F1-F44895BF6284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{765F3A5A-2E53-43DD-A2B4-03D018D35F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{264B9CE2-772F-4631-8BE5-4D192BA8C525}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{9A833290-B74B-44EF-8FC5-361F41DE0979}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -940,14 +940,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7D1764FB-49BE-4F9F-A285-E4581738E95C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{92947135-0A25-4727-96B2-73BCD374E6E7}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F29D5B22-29B6-41D9-AC41-60433A157A25}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{BFFAFDA7-94AD-46BA-84CB-374A9CBF530A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{E46D4FDE-D726-4665-B6E2-FF4443CEBBD2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{75B32928-79AE-4F30-A404-49BDBF614A5E}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{36F7656C-A1BA-4876-BD89-2F3FF9D7444E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{65A83676-1986-4326-B046-173659955607}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A54D769A-FB59-496D-BB3A-2D53B084F3D1}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B21D844B-2075-48B6-8A1C-57C70A622CED}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{403761F3-1E03-402C-A252-6FBBCD460B9D}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{470479BF-CAA9-4ADB-A123-CAD3C3B36579}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{84072989-9F3C-4204-8BF6-C7D4ABF15BD6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{770630DE-00E7-48CA-81F5-311ED202E9D6}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{886EBDF4-DA1A-479B-840F-E865E67B52A3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{16B7689B-78F5-4EB9-A9CE-BAABC0649F95}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1818AEAB-6199-47E5-8ADC-82D1DB5BA7BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CCE28B-2617-4533-9422-0C47206103CF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2568,18 +2568,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2E3BD60-1D39-4A8C-87B1-C9B40E155956}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE1F9BA8-FBAA-4077-A701-897E017429C4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5ACCCC0D-2071-4A16-96ED-3830C87892DC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0330519E-2CDE-4669-8A89-2E8927D904F8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0AFA9928-2D26-415E-AFB7-5B847FE719DC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F0A05891-8DC4-4317-95EE-CBA17A8A7D2E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00FAEA93-0145-4BAB-8A7C-73B3F27B32C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9D4EA69-F885-4AF1-BF6B-C6EB54B0A320}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22B9BC39-0521-40FA-AC53-929658A2DCD1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55ABC6D0-7866-41E9-A5A8-222A112B3D61}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E17698C6-E7EE-4053-A21C-0E273F96522F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8C66440-E34A-46E7-A3A0-2E77B8E57F28}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{870B2A1C-CB4B-4D7A-BA29-498BAC59F946}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{510C23A7-9B28-4EFD-97A0-42F695C87D7C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B064CA5-FA18-4E8A-98B9-82FD07E3B812}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B2867920-39DD-4212-A5A2-889C6471AE6D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA6943F1-19DE-4DC2-92FE-76AF061E9699}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E1C5D6D0-E787-48A2-A985-417470E3B324}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{826AD8EE-6013-4392-99FE-DFFC19006E15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B0FB4AD-091D-4EB1-A982-69170FAC53A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE6BB2A5-189D-427A-AA40-37027DE61B92}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E1A775D-A5E5-446E-8299-45ABD64DC87B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3448A7A-9ED2-4FB8-9628-8435CC3C8EA6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB7F9DEA-C985-4B73-86F4-88E1FD466300}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3270E2C5-1DF4-48F8-AAB5-E499037E9128}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FADB5A-6572-4943-A26E-40CDD0234BAD}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3818,18 +3818,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9799915C-DA2B-47DD-B9C8-298EE242B595}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6133167-D7E5-42BC-821F-63EDC13E561C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7630F9BE-0437-4081-8983-A4D3817030C4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8252AE8B-F5F4-4CA8-8B0E-90FBDA23373F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8F806F7-59B7-4BE3-9B51-CF5DCAD2A3D8}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CE70548F-BB9A-460D-9879-4F2E22A8897F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EF6347C-93D7-49D1-9581-C99B0FFB2A8A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2711F8A-B495-499D-9993-8762F9316872}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E2EF470-CC5D-42C6-9E9A-C3684F214637}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C46A3FCE-2C07-488B-A453-CF6F701929A2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A5CC3FCF-FA3A-4971-A502-0AD5A70DA670}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06C0B43D-2DF2-431C-85B6-9E4835D52B78}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16B69C49-D9EE-4B05-963B-1A7DD7813C30}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA6FB06F-506B-4958-8234-42A4ECB9B100}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1DBD2308-967C-4BE3-953F-ACA952BD817D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{67CCCE6F-8DB6-4C49-B0B5-ADB417006C9F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{965FBE8A-BF1D-4A63-9C89-D51219844B33}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FE66DB9B-4245-4CCE-A9C8-25D6DBB4160E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B2579A2-0ACB-437B-816D-82E5A4EB5FAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FC23A81-AB41-40BB-BFC1-E7E35961B10A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D920146F-442B-4B13-9FE5-FFDA1984086E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43F9A1B5-3591-4A2E-B547-719AC1AA0486}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{291407F7-66A1-41B3-A484-BB33C201029B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70B4EF22-35F4-4DD7-A005-32CDC70ECE4D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3842,7 +3842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DDC3D4-132D-4DCB-A79F-DD353C67E655}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2198753-7EC9-413F-B117-BEF061A52C00}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5068,18 +5068,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD0A25F2-0447-4925-9187-38BA1A0FA7ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6A648F6-BC81-49A6-A5D0-BD474E9776D3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2F7606FD-A8BC-4AB9-A20E-9247BEBA7C55}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F09D045F-89DF-41A7-AC7C-EFAE34591B4B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8EE82E48-205C-4B9B-93CD-7DB25DAAE979}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D683E2CA-6D5D-4E2C-9CC8-0D1E68C79B77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24306092-E859-4694-89A9-82E5616B9A8F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B379D45C-A5D3-4660-B932-70495DCC3A1F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6EB2468-5304-4E20-8153-47D0A96D5839}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09C74CF6-29C7-471A-80F4-7D80ADB80F01}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2C66EC4-EE80-434B-BA3A-D9B44C708E7C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69375B13-8418-4F7B-9322-533E3BCFD347}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA9C2B2A-D7DF-428C-B230-43455E8A3F41}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2678EEF2-DD6B-428E-A20A-E26D2CDF3D80}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DC4CC4E9-DC1D-469E-A8CC-E6BFA8935F64}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D1CC8E34-1DFD-4F47-8BDB-62237BA58444}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC75DE9B-9999-4164-8EA3-43995734029D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{06F94654-E311-4233-8F96-530A1DB33AAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFFEE685-4A84-4869-9C5D-FCCC17C9298C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59655D43-E8C8-4506-93B1-802993683A4D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8F90211-8DE1-4DB9-B873-81394994F4E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7EEA70BC-C402-4F68-874A-900E2BFE5118}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A2AE8E1-FE1D-4EBA-9CB8-7DF2B7BEC9A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B089B9E3-7DCB-49C6-AB00-6ABADFC183E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5092,7 +5092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE2DF24-26C2-43CE-8987-21D65118A547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DADDDA-8713-4AC8-8FE7-D89374C2E64E}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6308,18 +6308,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E9A4013-45CB-4271-B93F-75791D170F22}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65B44CB2-5A23-4366-835F-F1C33E3B5145}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5E4FD32-6A02-435C-8357-4A1FE2A44607}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4B7DDB11-9D1D-4F40-8DD6-C0BCCE7C6F99}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F9979B5-F3E9-4BC5-A129-8305DD6A7202}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{67767027-2C70-4095-B61F-35F807A240D0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D02D91E-2164-4B61-9253-66B953D351E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3728F5F-4A32-4D5F-A4DE-61699DB4BAAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A2A2F62-2167-46FB-9C2F-EC60D3328420}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C9348A9-CE64-42A4-B173-6327408CDD58}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{184E670F-70F7-490D-B61B-E17EB6ABFBCA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06316086-04AC-4330-99A8-05318C8DA043}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EBAEA9B7-0801-48D0-AB2E-23F805D63341}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FFC4D07B-EE6C-4C7D-A81A-43BFE1EBC0D7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4796A340-6ADE-4742-9B14-56290BA49778}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D3DFF845-DBDF-4573-8ED2-6B8A6FA5407B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96FC2E02-0E5D-4697-B9BA-BDED3E66CF22}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E48B0633-AFC6-4C34-AA8F-07B2B177B057}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E022C67E-FA92-4CB1-B0FE-BF421DB29A71}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5068B22-C236-4058-9AEA-52C920DDF525}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31FF96B6-BD5D-4108-BD54-6E9FF1312FA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31B5802F-1588-427A-A771-A5E54360B7AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9045A819-0DD5-4CBB-9FFA-AC181AD2C26E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B8095E5-F412-4DC4-A489-95115507A432}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6332,7 +6332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21CD551-D293-4518-8700-181EDD65A519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058773C4-4B65-4F81-8206-6663C8B476E7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7583,18 +7583,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA05CBD4-A330-4D2F-AE89-F057C2E9FD87}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3707CB2-DA30-488D-851E-8999796B5792}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F2ADBAEE-6C9D-4D8E-A5B2-74E30F1E772F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0829D0C6-EE53-4EA3-B704-BAC0998DAEE2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00B00E4A-7211-4E74-AD59-B242CDC425D6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6B618E5F-66A2-4A48-9916-62B2B558C306}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96A0B098-662C-43AF-861D-53FFE7AEE2CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A946E47-A68E-4F6F-9BF9-522771DDE171}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7479A73F-D7F9-404A-BC3D-564B0D449323}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F25E77B1-BF4B-4A80-BB9E-9E4C67BE992B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F6F752F8-B722-469E-9968-C230B31E329C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D278B77-24C8-4B36-8184-37063A301EE3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11DBC64B-D2B7-4014-93A4-FFF4B639F94E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0B8A65E-EB2C-4FA7-B2E6-67D407643BD9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4E55E117-1A06-4222-BCB2-DD70DE9234E8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9C406C88-7D58-4CC5-8FF9-01EFC8F065F1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2593DDA2-EE4B-46E9-ACE6-6F16BA1835AD}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1DB0F2A5-7376-4899-B26A-20386E17A8A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A27BBEEA-531D-48AC-A852-93080BD93862}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{420070C1-8248-451B-83B8-FEA4D19262D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{55EA291E-0D43-4C3D-962B-E4E0B5918284}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{396D6C7E-A4FF-4996-93D8-564A61362F77}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7971C9C3-D574-4F98-83EE-234973F14989}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60227083-4E63-4669-8AB7-8DB682E88590}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7607,7 +7607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015E315B-FFD1-461E-BA6A-BEC59535DDC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC04E87-8D0A-498B-83AC-1A7248863B3D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8858,18 +8858,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8E56AA1-7034-469F-A1BC-DEE7F5096A91}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B44310E0-D8C3-40F4-B87B-1349EFFC100E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE80E55F-FBA1-4A4D-9EE9-7C29C1665B76}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{124E214F-5E9F-482C-A3EA-43D7ED2CDA3E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00AF521F-191C-4395-A843-3F7DC748AB1C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9E975DE4-4B2B-466B-8F6A-61C386C53F88}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77B5BBDB-39F1-45DB-8EA6-D1785A175BC8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14678AB2-F4A0-4FBF-8FE3-B2AD05D55CF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D16DAA0-A904-487A-98EF-0DF0D9470C55}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F68778B0-3F3D-4994-BA09-33C1E01B9974}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B089E90C-A903-4188-A2E1-BE0511AE4883}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27BD02AC-B454-4365-BA1C-E838C7AA85EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77B43E1A-3C6F-44BE-8636-59EC054E008A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A19523C2-6FA4-48F1-B6B0-3F2FA6D5A5C8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{734DC596-D173-4CE5-9258-7A4A14CDDABF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CBB2569C-1B83-4E2A-B929-5EAF5585A15D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12ED2B9E-9308-4C56-979C-6DB8F4A2FC56}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{52BC90B6-D0DA-498B-85C2-4152EA9BCD7F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BE05A13-55DC-4D58-87BF-16EE9736F446}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B2E77D5-E8BA-46C9-8AA3-BBA8C86A751B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{79CEE41B-E77A-4C88-904F-3D4B3DA435F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09E85EE0-4799-4075-A1D0-6D68A14CAEDF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69D0C8B0-0433-4ED1-A578-31CEC1384940}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16B1ED4B-4EC3-4D02-8F0C-E3B56A7F5C5E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8882,7 +8882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3FC47-1E86-4E9C-A870-A0D71B2F4DA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9F1A61-ECB6-4992-BCCB-81384A9035DD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10133,18 +10133,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5CE06D5F-3528-43A3-81D2-E26C9BEC4BDD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{508FE501-9C8C-4CFD-ADA2-1AE748EB3D74}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AEDF759D-C496-46EA-B28B-618357FA7006}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{36EDD2F5-D367-4FB3-9023-4773C52FD0C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB10DA5D-D1FC-44F6-9430-3A8BD014DE7D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B93D95F4-8979-4FED-8D73-C59953264816}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA3A7C4E-8E95-4819-AA29-09FBB230F734}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A37985DE-9764-4DD0-AD41-704E960E5BBA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{968BF1F3-54E7-48B7-8FE0-535938B88D75}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E878800E-F3C4-4114-89BC-0B154E42D8D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77E536F3-F3DA-4D53-A6E9-CA1B356E5E99}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1DEEC38E-E12E-4E03-B15B-A897BF83866B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34AB5EFB-EF55-4991-B9F5-AAE03F0D5015}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F98B62BD-C1AF-49BC-ADA9-4B51CE6C98CB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5C9FC026-2469-47F3-B398-10995F6044FE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{19721278-3724-42B0-9096-0822455F7690}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D2A4ADE9-E8B9-48C1-9B65-C2D1BD41D87F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{807577F9-12F9-458F-9CF4-612DABE617D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8FDAB7E4-79A7-49C2-88DD-BE0665D3E131}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E96A556E-18C7-421F-9F24-3BA4527431FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3559906E-6768-405B-AB25-1E99539DAF4E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5962B061-8C3A-4BF4-88C5-834A2A1244D0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96FE68C3-2E3A-4D32-939F-96B1A4580F77}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D14EAC9-7890-4194-90F7-9DE1550F1019}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10157,7 +10157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A50AD7-595D-4C1C-A3D5-E8480D91E11D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB68766-A1D1-461E-B323-AAD7B721DD58}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11404,18 +11404,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2350BE9-BB40-429D-B034-1F436C791074}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADC03C68-90DE-4B86-87E8-8A60A69EB8A5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{12DF819A-441A-433F-9E46-C71679C33AF4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0907E52E-4117-4C85-AB6A-289C04970939}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2535BD7A-19E1-43B5-B850-B2F065D77EC3}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{348B938C-B293-4651-B9F2-C948E86EEFAB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98A7E87B-C9BC-41D0-ABD7-FA15E4204093}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3940227-B641-4F2A-BDB9-03ED3C0FF46F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{168F0AD0-1DA1-4B24-91C7-760C1A171D09}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFF76BC4-9C40-464F-9D8E-F76FFFBA4603}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3565E01F-51C6-4C1C-B4E9-3E8962DF390B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8EC645F7-BD53-42F8-A484-BDEA85E499D1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C589CEF-487B-4BF9-A418-524D6CF6E342}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C7BE34C-25AD-4237-964E-72B01F80E071}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{191197AF-49D3-4F07-BFCD-60D246291E8A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{39C10C69-893D-4F8D-A382-4CC1EAB6018F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BCD430E7-1511-47F2-AADB-EEA1E90AE3F9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0891E444-48AE-45F1-9259-603DE85EE2F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{880D3247-BF55-4072-8766-C45A05941D13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED3C3C35-1EAD-4AB5-944F-ECAE01870F84}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{701C62ED-D9DD-41F4-B148-2DE444C6B640}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20D687C6-D467-4661-BBDD-27C14176A6C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{14757CA8-265C-4637-AF2D-4B90DFEB3870}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB351784-CEFB-4429-9BF4-425349C7DA45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11428,7 +11428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC75D3-3ABA-4B65-93E2-3E883D60721E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA5BEAA-13EC-4229-AD6B-7F2A1E85DF60}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12676,18 +12676,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47D2430B-BB3A-4951-811B-EA459DA019A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96685F47-81F0-4B05-A081-1C1989A11B83}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B33B58F-52D5-486C-A4D7-F9640AD52CFF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84EAA6D5-7CA3-4F9B-A59E-C5D503C576E7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C670F35-FF55-4B9D-ACAA-F228D330B0B9}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5B6C908E-3B17-4891-97DC-7D1E07137604}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2320F46-8371-49ED-AD19-9E74921B0D31}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{621A2AF6-74DF-46F4-BBFE-8EDD8C971826}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96B83BFE-461E-42FD-9C4B-3527CA91DC58}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BCB087D-1170-4E67-A2F3-9E2B1F909794}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{106038EE-C378-4261-B22B-78EF00E80B1B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7CD387F-B62F-4B5E-9B48-C08E53F2956F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F45BC416-6E5E-4A63-822B-7731B0592311}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC8EC4EE-BCA8-4F56-BA7C-408D45C46965}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{75F8905C-EBEA-4176-A2F0-5FDFCED5368F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE45AF18-C4FF-400B-9F6F-11DCC720543D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DD5563C4-FDFF-4D20-951C-F710C2788B60}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5BF3BB4B-AEC7-4291-AC2B-953547C1BC35}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1F6D534-BBC9-4957-A3D0-F1BFDCED15C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D65728E-E8BB-48D7-A734-5DEE0878F530}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{430E17CA-24E3-4681-957E-C21C67CA52D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A64EB28-1460-4D7F-9D25-F3780FAF3DD5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{25B8A8DE-3270-4EEC-822B-0D348D685F1C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE6EE205-4514-4636-AAD6-B35D09A86296}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12700,7 +12700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EF4A4-4DE8-4085-9E1D-63197C98F056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476D7869-8C7B-4089-9CD8-B4D13736AA27}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -13948,18 +13948,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8760A814-255D-4C3A-A9DA-3425D30ABFA5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF0C91CC-6866-4F20-8B8B-72542C3D3347}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CA86A47C-84CE-4EDD-9132-89E35E648A9C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3331774D-FA79-4DC6-B22D-4EB0A98DA7D1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B0FCFE8-4086-4031-AA36-EFE9F16EE5A1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6F41532C-BA8C-4553-963F-4449E00AE64B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31EDE438-9C03-4773-A436-0921551D8636}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37B59F9B-135C-4A16-8FFC-A877CCE0EC47}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1956E38B-C609-4365-8FE9-C191F2284DE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77E72DFF-2F1E-4D46-98AB-A2D0E3AA7245}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7331FA85-B90C-4723-BF52-9F416DD810ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03FFC80D-46E8-4DB3-B223-C4BA89738CA7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F791445-C312-497C-B80E-BF196AD8EA85}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{645FC0AE-A359-4829-BC0F-69F2E790925B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{86974721-F666-4905-A416-329C5F6BA09E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{037976A7-AADA-4038-AA02-2D55028C2876}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E18B3B8-4A5B-4A38-9E9C-DFBBBD5B6CA4}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{83B40B8D-7666-4310-8AAA-967B0A466BF2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F9ED7455-7074-4446-8E55-53FB5B3559FB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16471283-3844-4A8A-9912-160D42A71381}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA8B260C-5CCB-4C0E-8F0C-F8E9018AA1EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F5ABD20-56AA-4238-9EA6-3F950A1504BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C1015366-3EA6-4317-B4E2-0441A7BF7D10}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9FE3D23-1947-484B-97F7-73611A1D7320}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13972,7 +13972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C095C4-78A2-4829-B64E-C6FB4FCF40B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAC89C4-9400-4309-81F7-820B8B8A11D4}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15220,18 +15220,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3091ADF5-6B59-4703-8826-8C4EDDCEEEC0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35A8BC45-63F7-4BBE-8BED-DFF74725B035}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7FF78059-6BD8-4AD0-A84C-A578DC5E036C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E18BBAE1-DB85-439D-87BE-E0E080F171B9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E56B73A-F412-45C0-B2E6-EB71FD64D0BC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{15AF3E3E-3041-4FDA-978E-8567586CE1EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F4BCA4B-7D61-4381-9675-EA5D5BB8818C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75B8F1EE-AD1B-47D6-840E-2ACC9C404E5A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB7991B4-1F57-4AB8-B79C-3D60E8BFEC60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CDFEB6AB-5724-49CA-9046-8840FCEB3C8F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CEECE6AE-BBBF-4574-A52F-69C916689119}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5DDC833E-1DD0-458E-9379-387B16A2162E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EBD29683-F5A8-406A-B215-5641EA477501}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A14B10D-7B17-4DD0-A878-3F3A4233E5BD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{299CAE9F-2BB8-44FE-9F08-BBF7C15170ED}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FDFF7AD3-0093-4B4D-BC42-719BFB45D135}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7D53AF03-1DD1-4138-B3FE-54614957CD7B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F62EBE9F-0A8F-4DFC-B404-6C73F096D1D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B386DBB7-803C-4357-B097-55DBEBB24E76}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AD88BC9-3501-4CAA-9402-EC12AC7B5B2B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{857C9EE6-FC19-451B-8F10-40ACECF7CF43}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EFFEF81A-9DFD-4739-9102-8AEE48F921AA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{155BD960-1D89-4B33-9F11-2968CC1E00B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED127BDA-230A-41C5-B803-57B4CE4CF959}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15244,7 +15244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC5D10F-32B1-4F29-BBB2-EEA23122B832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF847B1-0542-4799-AC60-612F60AA5624}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16480,18 +16480,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FDA0B39-B33B-4E5D-BCC6-3E0A88410AD0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C0DD629-4F7E-4B30-8D3C-B7A3986A0AD1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{89A2CC14-FDC1-4F81-8DEF-6C5D75CAA021}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E342E19A-D215-4910-A5A9-14690AA6804B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DF67645-3B3E-47B0-A337-2877BC75DCFC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A6BCEB2E-F244-481A-99B9-E8DDA10BCAA0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ABAF049C-5A7D-4104-98D4-07F26EBB46CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC3BF9DB-0785-438D-A786-6206703A1516}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B769E85B-256B-4F16-B8C1-FBF4B410A961}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{969277E9-FC76-4835-898A-11196B5C5FF1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{492749D6-88E3-4491-9A5B-A69874EE996C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75288C76-5365-4ABA-9E54-C5F6B803AFDB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59D43B7F-BEFC-449B-98DA-02E3C8D60514}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3C12109-C492-4CD0-B23B-C0F822A361C1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DD9AEA64-55DF-4629-AF86-ECDF6DDA42BE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{70C43C43-E8A3-4401-8ADF-42932CE43FA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCF7363E-9055-4931-9288-A0B7012CEF5A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{56532A5D-1D99-488D-8305-E387C2BB2E67}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B25E361-4C0D-4A9A-9820-A460E9E08964}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14A16506-C3F0-43A1-BCF6-EA3490E42713}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{218CE63F-645D-4CB3-B9AA-0B356E9CABD9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D58FD079-4680-4913-9F88-99AD7322E029}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31405293-4FE5-4ACB-A230-F61076DA3D7C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92A855BB-06CA-4BC7-8159-DC675CF3C378}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
